--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Thpo-Mpl.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Thpo-Mpl.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Thpo</t>
+  </si>
+  <si>
+    <t>Mpl</t>
+  </si>
+  <si>
     <t>ECs</t>
   </si>
   <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Thpo</t>
-  </si>
-  <si>
-    <t>Mpl</t>
+    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,75 +522,75 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
-        <v>21</v>
-      </c>
       <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G2">
+        <v>0.7896443333333334</v>
+      </c>
+      <c r="H2">
+        <v>2.368933</v>
+      </c>
+      <c r="I2">
+        <v>0.6394500843671492</v>
+      </c>
+      <c r="J2">
+        <v>0.6394500843671492</v>
+      </c>
+      <c r="K2">
+        <v>3</v>
+      </c>
+      <c r="L2">
         <v>1</v>
       </c>
-      <c r="F2">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G2">
-        <v>0.08620699999999999</v>
-      </c>
-      <c r="H2">
-        <v>0.258621</v>
-      </c>
-      <c r="I2">
-        <v>0.07914100122680011</v>
-      </c>
-      <c r="J2">
-        <v>0.07914100122680012</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M2">
-        <v>0.3404013333333333</v>
+        <v>0.3210106666666667</v>
       </c>
       <c r="N2">
-        <v>1.021204</v>
+        <v>0.9630320000000001</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.3467150827570242</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.3467150827570242</v>
       </c>
       <c r="Q2">
-        <v>0.02934497774266667</v>
+        <v>0.253484253872889</v>
       </c>
       <c r="R2">
-        <v>0.264104799684</v>
+        <v>2.281358284856001</v>
       </c>
       <c r="S2">
-        <v>0.07914100122680011</v>
+        <v>0.2217069889203422</v>
       </c>
       <c r="T2">
-        <v>0.07914100122680012</v>
+        <v>0.2217069889203423</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -602,10 +605,10 @@
         <v>2.368933</v>
       </c>
       <c r="I3">
-        <v>0.7249207506707007</v>
+        <v>0.6394500843671492</v>
       </c>
       <c r="J3">
-        <v>0.7249207506707008</v>
+        <v>0.6394500843671492</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,10 +623,10 @@
         <v>1.021204</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.3676584260666355</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.3676584260666355</v>
       </c>
       <c r="Q3">
         <v>0.2687959839257778</v>
@@ -632,42 +635,42 @@
         <v>2.419163855332</v>
       </c>
       <c r="S3">
-        <v>0.7249207506707007</v>
+        <v>0.2350992115666033</v>
       </c>
       <c r="T3">
-        <v>0.7249207506707008</v>
+        <v>0.2350992115666034</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.2134323333333333</v>
+        <v>0.7896443333333334</v>
       </c>
       <c r="H4">
-        <v>0.640297</v>
+        <v>2.368933</v>
       </c>
       <c r="I4">
-        <v>0.1959382481024992</v>
+        <v>0.6394500843671492</v>
       </c>
       <c r="J4">
-        <v>0.1959382481024992</v>
+        <v>0.6394500843671492</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -676,28 +679,214 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
+        <v>0.264451</v>
+      </c>
+      <c r="N4">
+        <v>0.793353</v>
+      </c>
+      <c r="O4">
+        <v>0.2856264911763403</v>
+      </c>
+      <c r="P4">
+        <v>0.2856264911763404</v>
+      </c>
+      <c r="Q4">
+        <v>0.2088222335943333</v>
+      </c>
+      <c r="R4">
+        <v>1.879400102349</v>
+      </c>
+      <c r="S4">
+        <v>0.1826438838802036</v>
+      </c>
+      <c r="T4">
+        <v>0.1826438838802037</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.445236</v>
+      </c>
+      <c r="H5">
+        <v>1.335708</v>
+      </c>
+      <c r="I5">
+        <v>0.3605499156328508</v>
+      </c>
+      <c r="J5">
+        <v>0.3605499156328508</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.3210106666666667</v>
+      </c>
+      <c r="N5">
+        <v>0.9630320000000001</v>
+      </c>
+      <c r="O5">
+        <v>0.3467150827570242</v>
+      </c>
+      <c r="P5">
+        <v>0.3467150827570242</v>
+      </c>
+      <c r="Q5">
+        <v>0.142925505184</v>
+      </c>
+      <c r="R5">
+        <v>1.286329546656</v>
+      </c>
+      <c r="S5">
+        <v>0.1250080938366819</v>
+      </c>
+      <c r="T5">
+        <v>0.125008093836682</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.445236</v>
+      </c>
+      <c r="H6">
+        <v>1.335708</v>
+      </c>
+      <c r="I6">
+        <v>0.3605499156328508</v>
+      </c>
+      <c r="J6">
+        <v>0.3605499156328508</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
         <v>0.3404013333333333</v>
       </c>
-      <c r="N4">
+      <c r="N6">
         <v>1.021204</v>
       </c>
-      <c r="O4">
+      <c r="O6">
+        <v>0.3676584260666355</v>
+      </c>
+      <c r="P6">
+        <v>0.3676584260666355</v>
+      </c>
+      <c r="Q6">
+        <v>0.151558928048</v>
+      </c>
+      <c r="R6">
+        <v>1.364030352432</v>
+      </c>
+      <c r="S6">
+        <v>0.1325592145000321</v>
+      </c>
+      <c r="T6">
+        <v>0.1325592145000321</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.445236</v>
+      </c>
+      <c r="H7">
+        <v>1.335708</v>
+      </c>
+      <c r="I7">
+        <v>0.3605499156328508</v>
+      </c>
+      <c r="J7">
+        <v>0.3605499156328508</v>
+      </c>
+      <c r="K7">
         <v>1</v>
       </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>0.07265265084311111</v>
-      </c>
-      <c r="R4">
-        <v>0.653873857588</v>
-      </c>
-      <c r="S4">
-        <v>0.1959382481024992</v>
-      </c>
-      <c r="T4">
-        <v>0.1959382481024992</v>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.264451</v>
+      </c>
+      <c r="N7">
+        <v>0.793353</v>
+      </c>
+      <c r="O7">
+        <v>0.2856264911763403</v>
+      </c>
+      <c r="P7">
+        <v>0.2856264911763404</v>
+      </c>
+      <c r="Q7">
+        <v>0.117743105436</v>
+      </c>
+      <c r="R7">
+        <v>1.059687948924</v>
+      </c>
+      <c r="S7">
+        <v>0.1029826072961367</v>
+      </c>
+      <c r="T7">
+        <v>0.1029826072961367</v>
       </c>
     </row>
   </sheetData>
